--- a/18 个人理财知识/04 self_long价投.xlsx
+++ b/18 个人理财知识/04 self_long价投.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15255" windowHeight="9705" firstSheet="4" activeTab="6"/>
+    <workbookView windowWidth="15165" windowHeight="9705" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01 逻辑" sheetId="1" r:id="rId1"/>
@@ -21,27 +21,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="157">
   <si>
     <t>核心：
 1 公司是否可以持续盈利：竞争格局，竞争对手；产品盈利情况，市占率，上下游成本变动，本身运营成本（容易造假）；
 2 是否便宜：安全边际提供足够的回旋空间，市场先生的误判不影响经营情况</t>
   </si>
   <si>
-    <t xml:space="preserve">（3）综合指标主要包括看张共识、交易者的态度、新高与新低指标等。这组指标主要是衡量当前市场的情绪状态，它展示的是看涨行情还是看跌行情。各组指标经常是相互矛盾的。
-市场：
-    股债利差、股债性价比
-    两市融资、成交量
-    涨跌停数TRIN
-    交易者指数 
-    市场风险分位比
-</t>
+    <t>（3）综这组指标主要是衡量当前市场的情绪状态。</t>
   </si>
   <si>
     <t>整体市场风险以及合适投资机会</t>
   </si>
   <si>
-    <t xml:space="preserve">股票吸引力指数N（股债比率） = 股息率 / 国债收益率 </t>
+    <t>股票吸引力指数N（股债比率） = 股息率 / 国债收益率</t>
   </si>
   <si>
     <t>股息率 = 分红 / 股价</t>
@@ -143,36 +136,29 @@
     <t>当前股票吸引力指数N</t>
   </si>
   <si>
-    <t>融资融券</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">东风财富  </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF800080"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://data.eastmoney.com/rzrq/total.html</t>
-    </r>
+    <t>下面指标采用两三个即可</t>
+  </si>
+  <si>
+    <t>融资融券（东风财富https://data.eastmoney.com/rzrq/total.html）</t>
+  </si>
+  <si>
+    <t>涨跌停数TRIN</t>
+  </si>
+  <si>
+    <t>新高新低</t>
+  </si>
+  <si>
+    <t>大机构：泰康资产 社保基金</t>
   </si>
   <si>
     <t>十年国债利率变动
-银行是否放水？ 提准变动，降息利好加息利空
-新高新低
-泰康资产 社保基金 大资金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">保护方法：
-a离开
-b对冲
-c转移到低估值的资产或股票
-</t>
+银行是否放水？ 提准变动，降息利好加息利空</t>
+  </si>
+  <si>
+    <t>判断，如果风险高：
+   a离开
+   b对冲
+   c转移到低估值的资产或股票</t>
   </si>
   <si>
     <t xml:space="preserve">                                             筛选条件</t>
@@ -677,11 +663,11 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,11 +738,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="12"/>
+      <color theme="7"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -909,16 +906,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="54">
+  <fills count="60">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1066,6 +1055,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1393,10 +1418,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1405,137 +1430,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="42" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1679,15 +1704,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1697,18 +1727,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="57" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1744,19 +1775,46 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1764,12 +1822,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2266,19 +2318,20 @@
   <sheetPr/>
   <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E40" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.3333333333333" style="47" customWidth="1"/>
-    <col min="2" max="3" width="18.8333333333333" style="47" customWidth="1"/>
+    <col min="1" max="1" width="22.875" style="47" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="47" customWidth="1"/>
+    <col min="3" max="3" width="24.125" style="47" customWidth="1"/>
     <col min="4" max="4" width="25.3333333333333" style="44" customWidth="1"/>
     <col min="5" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" s="44" customFormat="1" ht="144" customHeight="1" spans="1:16">
+    <row r="1" s="44" customFormat="1" ht="34" customHeight="1" spans="1:16">
       <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
@@ -2298,7 +2351,7 @@
       <c r="O1" s="49"/>
       <c r="P1" s="49"/>
     </row>
-    <row r="2" s="44" customFormat="1" spans="1:3">
+    <row r="2" s="44" customFormat="1" ht="24" customHeight="1" spans="1:3">
       <c r="A2" s="47"/>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
@@ -2321,312 +2374,311 @@
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
     </row>
-    <row r="6" s="45" customFormat="1" ht="13.5" spans="1:2">
+    <row r="6" s="45" customFormat="1" ht="22" customHeight="1" spans="1:3">
       <c r="A6" s="51" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="51"/>
-    </row>
-    <row r="7" s="45" customFormat="1" ht="13.5" spans="1:1">
-      <c r="A7" s="45" t="s">
+      <c r="C6" s="51"/>
+    </row>
+    <row r="7" s="45" customFormat="1" ht="18" customHeight="1" spans="1:3">
+      <c r="A7" s="52" t="s">
         <v>4</v>
       </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
     </row>
     <row r="8" s="45" customFormat="1" ht="13.5" spans="5:6">
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
     </row>
     <row r="9" s="45" customFormat="1" ht="13.5" spans="1:6">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
     </row>
     <row r="10" s="45" customFormat="1" ht="13.5" spans="1:6">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="52"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="53"/>
     </row>
     <row r="11" s="45" customFormat="1" ht="13.5" spans="1:5">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="E11" s="52" t="s">
+      <c r="C11" s="58"/>
+      <c r="E11" s="53" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" s="45" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="58"/>
-      <c r="E12" s="54" t="s">
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="59"/>
+      <c r="E12" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="54" t="s">
+      <c r="G12" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="54" t="s">
+      <c r="H12" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="54" t="s">
+      <c r="I12" s="55" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" s="45" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="E13" s="59">
+      <c r="B13" s="60"/>
+      <c r="E13" s="61">
         <v>38718</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="55">
         <v>2.72</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G13" s="62">
         <v>2.1</v>
       </c>
-      <c r="H13" s="61">
+      <c r="H13" s="63">
         <f t="shared" ref="H13:H18" si="0">F13/G13</f>
         <v>1.2952380952381</v>
       </c>
-      <c r="I13" s="65" t="s">
+      <c r="I13" s="67" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" s="45" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E14" s="59">
+      <c r="E14" s="61">
         <v>39448</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="55">
         <v>0.36</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="62">
         <v>2.99</v>
       </c>
-      <c r="H14" s="61">
+      <c r="H14" s="63">
         <f t="shared" si="0"/>
         <v>0.120401337792642</v>
       </c>
-      <c r="I14" s="70" t="s">
+      <c r="I14" s="72" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" s="45" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E15" s="59">
+      <c r="E15" s="61">
         <v>41791</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="55">
         <v>3.76</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="62">
         <v>3.3</v>
       </c>
-      <c r="H15" s="61">
+      <c r="H15" s="63">
         <f t="shared" si="0"/>
         <v>1.13939393939394</v>
       </c>
-      <c r="I15" s="65" t="s">
+      <c r="I15" s="67" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" s="45" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="53" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="E16" s="59">
+      <c r="E16" s="61">
         <v>42156</v>
       </c>
-      <c r="F16" s="54">
+      <c r="F16" s="55">
         <v>1.93</v>
       </c>
-      <c r="G16" s="54">
+      <c r="G16" s="55">
         <v>2.61</v>
       </c>
-      <c r="H16" s="61">
+      <c r="H16" s="63">
         <f t="shared" si="0"/>
         <v>0.739463601532567</v>
       </c>
-      <c r="I16" s="69" t="s">
+      <c r="I16" s="71" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" s="45" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="53" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="E17" s="59">
+      <c r="E17" s="61">
         <v>43435</v>
       </c>
-      <c r="F17" s="60">
+      <c r="F17" s="62">
         <v>3.05</v>
       </c>
-      <c r="G17" s="54">
+      <c r="G17" s="55">
         <v>2.95</v>
       </c>
-      <c r="H17" s="61">
+      <c r="H17" s="63">
         <f t="shared" si="0"/>
         <v>1.03389830508475</v>
       </c>
-      <c r="I17" s="65" t="s">
+      <c r="I17" s="67" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" s="45" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E18" s="59">
+      <c r="E18" s="61">
         <v>43556</v>
       </c>
-      <c r="F18" s="54">
+      <c r="F18" s="55">
         <v>2.47</v>
       </c>
-      <c r="G18" s="54">
+      <c r="G18" s="55">
         <v>3.04</v>
       </c>
-      <c r="H18" s="61">
+      <c r="H18" s="63">
         <f t="shared" si="0"/>
         <v>0.8125</v>
       </c>
-      <c r="I18" s="69" t="s">
+      <c r="I18" s="71" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" s="45" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E19" s="62"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="63"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="65"/>
     </row>
     <row r="20" s="45" customFormat="1" ht="13.5" spans="5:7">
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" s="45" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
     </row>
     <row r="22" s="45" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
     </row>
     <row r="23" s="45" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
     </row>
     <row r="24" s="45" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
+      <c r="C24" s="54"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
     </row>
     <row r="25" s="45" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
     </row>
     <row r="26" s="45" customFormat="1" ht="13.5"/>
     <row r="27" s="45" customFormat="1" ht="13.5" spans="1:1">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="73" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" s="45" customFormat="1" ht="13.5"/>
     <row r="29" s="45" customFormat="1" ht="13.5"/>
     <row r="30" s="45" customFormat="1" ht="13.5" spans="1:3">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="53" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="31" s="45" customFormat="1" ht="13.5" spans="1:3">
-      <c r="A31" s="52">
+      <c r="A31" s="53">
         <v>2.86</v>
       </c>
-      <c r="B31" s="52">
+      <c r="B31" s="53">
         <v>2.937</v>
       </c>
-      <c r="C31" s="72">
+      <c r="C31" s="74">
         <f>A31/B31</f>
         <v>0.973782771535581</v>
       </c>
@@ -2651,659 +2703,572 @@
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
     </row>
-    <row r="36" s="44" customFormat="1" spans="1:3">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
+    <row r="36" s="44" customFormat="1" ht="23" customHeight="1" spans="1:8">
+      <c r="A36" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
     </row>
     <row r="37" s="44" customFormat="1" spans="1:3">
       <c r="A37" s="47"/>
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
     </row>
-    <row r="38" s="44" customFormat="1" spans="1:15">
-      <c r="A38" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="73"/>
-      <c r="M38" s="73"/>
-      <c r="N38" s="73"/>
-      <c r="O38" s="73"/>
-    </row>
-    <row r="39" s="44" customFormat="1" spans="1:15">
-      <c r="A39" s="74" t="s">
+    <row r="38" s="44" customFormat="1" ht="28" customHeight="1" spans="1:3">
+      <c r="A38" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="73"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="73"/>
-      <c r="L39" s="73"/>
-      <c r="M39" s="73"/>
-      <c r="N39" s="73"/>
-      <c r="O39" s="73"/>
-    </row>
-    <row r="40" s="44" customFormat="1" spans="1:3">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-    </row>
-    <row r="41" s="44" customFormat="1" spans="1:3">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-    </row>
-    <row r="42" s="44" customFormat="1" spans="1:3">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-    </row>
-    <row r="43" s="44" customFormat="1" spans="1:3">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-    </row>
-    <row r="44" s="44" customFormat="1" spans="1:3">
-      <c r="A44" s="47"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-    </row>
-    <row r="45" s="44" customFormat="1" spans="1:3">
-      <c r="A45" s="47"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-    </row>
-    <row r="46" s="44" customFormat="1" spans="1:3">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-    </row>
-    <row r="47" s="44" customFormat="1" spans="1:3">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-    </row>
-    <row r="48" s="44" customFormat="1" spans="1:3">
-      <c r="A48" s="47"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-    </row>
-    <row r="49" s="44" customFormat="1" spans="1:3">
-      <c r="A49" s="47"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-    </row>
-    <row r="50" s="44" customFormat="1" spans="1:3">
-      <c r="A50" s="47"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-    </row>
-    <row r="51" s="44" customFormat="1" spans="1:3">
-      <c r="A51" s="47"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-    </row>
-    <row r="52" s="44" customFormat="1" spans="1:3">
-      <c r="A52" s="47"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-    </row>
-    <row r="53" s="44" customFormat="1" spans="1:3">
-      <c r="A53" s="47"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+    </row>
+    <row r="39" s="44" customFormat="1" ht="20" customHeight="1" spans="1:3">
+      <c r="A39" s="77"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+    </row>
+    <row r="40" s="44" customFormat="1" ht="21" customHeight="1" spans="1:3">
+      <c r="A40" s="78"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
+    </row>
+    <row r="41" s="44" customFormat="1" ht="20" customHeight="1" spans="1:3">
+      <c r="A41" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+    </row>
+    <row r="42" s="44" customFormat="1" ht="21" customHeight="1" spans="1:3">
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+    </row>
+    <row r="43" s="44" customFormat="1" ht="21" customHeight="1" spans="1:3">
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+    </row>
+    <row r="44" s="44" customFormat="1" ht="23" customHeight="1" spans="1:3">
+      <c r="A44" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="82"/>
+      <c r="C44" s="82"/>
+    </row>
+    <row r="45" s="44" customFormat="1" ht="22" customHeight="1" spans="1:3">
+      <c r="A45" s="49"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+    </row>
+    <row r="46" s="44" customFormat="1" ht="20" customHeight="1" spans="1:3">
+      <c r="A46" s="49"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+    </row>
+    <row r="47" s="44" customFormat="1" ht="26" customHeight="1" spans="1:3">
+      <c r="A47" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="83"/>
+      <c r="C47" s="83"/>
+    </row>
+    <row r="48" s="44" customFormat="1" ht="20" customHeight="1" spans="1:3">
+      <c r="A48" s="49"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+    </row>
+    <row r="49" s="44" customFormat="1" ht="22" customHeight="1" spans="1:3">
+      <c r="A49" s="49"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+    </row>
+    <row r="50" s="44" customFormat="1" ht="45" customHeight="1" spans="1:3">
+      <c r="A50" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="85"/>
+      <c r="C50" s="85"/>
+    </row>
+    <row r="51" s="44" customFormat="1" ht="19" customHeight="1" spans="1:3">
+      <c r="A51" s="49"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+    </row>
+    <row r="52" s="44" customFormat="1" ht="21" customHeight="1" spans="1:3">
+      <c r="A52" s="49"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+    </row>
+    <row r="53" s="44" customFormat="1" ht="63" customHeight="1" spans="1:3">
+      <c r="A53" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="87"/>
+      <c r="C53" s="87"/>
     </row>
     <row r="54" s="44" customFormat="1" spans="1:3">
-      <c r="A54" s="47"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-    </row>
-    <row r="55" s="44" customFormat="1" spans="1:3">
-      <c r="A55" s="47"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-    </row>
-    <row r="56" s="44" customFormat="1" spans="1:3">
-      <c r="A56" s="47"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-    </row>
-    <row r="57" s="44" customFormat="1" ht="114" customHeight="1" spans="1:20">
-      <c r="A57" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="76"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="76"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="76"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="76"/>
-      <c r="O57" s="76"/>
-      <c r="P57" s="76"/>
-      <c r="Q57" s="76"/>
-      <c r="R57" s="76"/>
-      <c r="S57" s="78"/>
-      <c r="T57" s="78"/>
-    </row>
-    <row r="58" s="44" customFormat="1" ht="15" customHeight="1" spans="1:20">
-      <c r="A58" s="77"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="77"/>
-      <c r="K58" s="77"/>
-      <c r="L58" s="77"/>
-      <c r="M58" s="77"/>
-      <c r="N58" s="77"/>
-      <c r="O58" s="77"/>
-      <c r="P58" s="77"/>
-      <c r="Q58" s="77"/>
-      <c r="R58" s="77"/>
-      <c r="S58" s="78"/>
-      <c r="T58" s="78"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+    </row>
+    <row r="55" s="44" customFormat="1" ht="15" customHeight="1" spans="1:20">
+      <c r="A55" s="88"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="88"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
+      <c r="K55" s="88"/>
+      <c r="L55" s="88"/>
+      <c r="M55" s="88"/>
+      <c r="N55" s="88"/>
+      <c r="O55" s="88"/>
+      <c r="P55" s="88"/>
+      <c r="Q55" s="88"/>
+      <c r="R55" s="88"/>
+      <c r="S55" s="89"/>
+      <c r="T55" s="89"/>
+    </row>
+    <row r="56" s="44" customFormat="1" spans="1:20">
+      <c r="A56" s="89"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="89"/>
+      <c r="I56" s="89"/>
+      <c r="J56" s="89"/>
+      <c r="K56" s="89"/>
+      <c r="L56" s="89"/>
+      <c r="M56" s="89"/>
+      <c r="N56" s="89"/>
+      <c r="O56" s="89"/>
+      <c r="P56" s="89"/>
+      <c r="Q56" s="89"/>
+      <c r="R56" s="89"/>
+      <c r="S56" s="89"/>
+      <c r="T56" s="89"/>
+    </row>
+    <row r="57" s="44" customFormat="1" spans="1:20">
+      <c r="A57" s="89"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="89"/>
+      <c r="I57" s="89"/>
+      <c r="J57" s="89"/>
+      <c r="K57" s="89"/>
+      <c r="L57" s="89"/>
+      <c r="M57" s="89"/>
+      <c r="N57" s="89"/>
+      <c r="O57" s="89"/>
+      <c r="P57" s="89"/>
+      <c r="Q57" s="89"/>
+      <c r="R57" s="89"/>
+      <c r="S57" s="89"/>
+      <c r="T57" s="89"/>
+    </row>
+    <row r="58" s="44" customFormat="1" spans="1:20">
+      <c r="A58" s="89"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="89"/>
+      <c r="G58" s="89"/>
+      <c r="H58" s="89"/>
+      <c r="I58" s="89"/>
+      <c r="J58" s="89"/>
+      <c r="K58" s="89"/>
+      <c r="L58" s="89"/>
+      <c r="M58" s="89"/>
+      <c r="N58" s="89"/>
+      <c r="O58" s="89"/>
+      <c r="P58" s="89"/>
+      <c r="Q58" s="89"/>
+      <c r="R58" s="89"/>
+      <c r="S58" s="89"/>
+      <c r="T58" s="89"/>
     </row>
     <row r="59" s="44" customFormat="1" spans="1:20">
-      <c r="A59" s="78"/>
-      <c r="B59" s="78"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="78"/>
-      <c r="M59" s="78"/>
-      <c r="N59" s="78"/>
-      <c r="O59" s="78"/>
-      <c r="P59" s="78"/>
-      <c r="Q59" s="78"/>
-      <c r="R59" s="78"/>
-      <c r="S59" s="78"/>
-      <c r="T59" s="78"/>
-    </row>
-    <row r="60" s="44" customFormat="1" ht="106" customHeight="1" spans="1:13">
-      <c r="A60" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="B60" s="80"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="80"/>
-      <c r="I60" s="80"/>
-      <c r="J60" s="80"/>
-      <c r="K60" s="80"/>
-      <c r="L60" s="80"/>
-      <c r="M60" s="80"/>
+      <c r="A59" s="89"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="89"/>
+      <c r="E59" s="89"/>
+      <c r="F59" s="89"/>
+      <c r="G59" s="89"/>
+      <c r="H59" s="89"/>
+      <c r="I59" s="89"/>
+      <c r="J59" s="89"/>
+      <c r="K59" s="89"/>
+      <c r="L59" s="89"/>
+      <c r="M59" s="89"/>
+      <c r="N59" s="89"/>
+      <c r="O59" s="89"/>
+      <c r="P59" s="89"/>
+      <c r="Q59" s="89"/>
+      <c r="R59" s="89"/>
+      <c r="S59" s="89"/>
+      <c r="T59" s="89"/>
+    </row>
+    <row r="60" s="44" customFormat="1" spans="1:20">
+      <c r="A60" s="89"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="89"/>
+      <c r="F60" s="89"/>
+      <c r="G60" s="89"/>
+      <c r="H60" s="89"/>
+      <c r="I60" s="89"/>
+      <c r="J60" s="89"/>
+      <c r="K60" s="89"/>
+      <c r="L60" s="89"/>
+      <c r="M60" s="89"/>
+      <c r="N60" s="89"/>
+      <c r="O60" s="89"/>
+      <c r="P60" s="89"/>
+      <c r="Q60" s="89"/>
+      <c r="R60" s="89"/>
+      <c r="S60" s="89"/>
+      <c r="T60" s="89"/>
     </row>
     <row r="61" s="44" customFormat="1" spans="1:20">
-      <c r="A61" s="78"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="78"/>
-      <c r="L61" s="78"/>
-      <c r="M61" s="78"/>
-      <c r="N61" s="78"/>
-      <c r="O61" s="78"/>
-      <c r="P61" s="78"/>
-      <c r="Q61" s="78"/>
-      <c r="R61" s="78"/>
-      <c r="S61" s="78"/>
-      <c r="T61" s="78"/>
+      <c r="A61" s="89"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="89"/>
+      <c r="E61" s="89"/>
+      <c r="F61" s="89"/>
+      <c r="G61" s="89"/>
+      <c r="H61" s="89"/>
+      <c r="I61" s="89"/>
+      <c r="J61" s="89"/>
+      <c r="K61" s="89"/>
+      <c r="L61" s="89"/>
+      <c r="M61" s="89"/>
+      <c r="N61" s="89"/>
+      <c r="O61" s="89"/>
+      <c r="P61" s="89"/>
+      <c r="Q61" s="89"/>
+      <c r="R61" s="89"/>
+      <c r="S61" s="89"/>
+      <c r="T61" s="89"/>
     </row>
     <row r="62" s="44" customFormat="1" spans="1:20">
-      <c r="A62" s="78"/>
-      <c r="B62" s="78"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="78"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="78"/>
-      <c r="H62" s="78"/>
-      <c r="I62" s="78"/>
-      <c r="J62" s="78"/>
-      <c r="K62" s="78"/>
-      <c r="L62" s="78"/>
-      <c r="M62" s="78"/>
-      <c r="N62" s="78"/>
-      <c r="O62" s="78"/>
-      <c r="P62" s="78"/>
-      <c r="Q62" s="78"/>
-      <c r="R62" s="78"/>
-      <c r="S62" s="78"/>
-      <c r="T62" s="78"/>
+      <c r="A62" s="89"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="89"/>
+      <c r="F62" s="89"/>
+      <c r="G62" s="89"/>
+      <c r="H62" s="89"/>
+      <c r="I62" s="89"/>
+      <c r="J62" s="89"/>
+      <c r="K62" s="89"/>
+      <c r="L62" s="89"/>
+      <c r="M62" s="89"/>
+      <c r="N62" s="89"/>
+      <c r="O62" s="89"/>
+      <c r="P62" s="89"/>
+      <c r="Q62" s="89"/>
+      <c r="R62" s="89"/>
+      <c r="S62" s="89"/>
+      <c r="T62" s="89"/>
     </row>
     <row r="63" s="44" customFormat="1" spans="1:20">
-      <c r="A63" s="78"/>
-      <c r="B63" s="78"/>
-      <c r="C63" s="78"/>
-      <c r="D63" s="78"/>
-      <c r="E63" s="78"/>
-      <c r="F63" s="78"/>
-      <c r="G63" s="78"/>
-      <c r="H63" s="78"/>
-      <c r="I63" s="78"/>
-      <c r="J63" s="78"/>
-      <c r="K63" s="78"/>
-      <c r="L63" s="78"/>
-      <c r="M63" s="78"/>
-      <c r="N63" s="78"/>
-      <c r="O63" s="78"/>
-      <c r="P63" s="78"/>
-      <c r="Q63" s="78"/>
-      <c r="R63" s="78"/>
-      <c r="S63" s="78"/>
-      <c r="T63" s="78"/>
+      <c r="A63" s="89"/>
+      <c r="B63" s="89"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="89"/>
+      <c r="E63" s="89"/>
+      <c r="F63" s="89"/>
+      <c r="G63" s="89"/>
+      <c r="H63" s="89"/>
+      <c r="I63" s="89"/>
+      <c r="J63" s="89"/>
+      <c r="K63" s="89"/>
+      <c r="L63" s="89"/>
+      <c r="M63" s="89"/>
+      <c r="N63" s="89"/>
+      <c r="O63" s="89"/>
+      <c r="P63" s="89"/>
+      <c r="Q63" s="89"/>
+      <c r="R63" s="89"/>
+      <c r="S63" s="89"/>
+      <c r="T63" s="89"/>
     </row>
     <row r="64" s="44" customFormat="1" spans="1:20">
-      <c r="A64" s="78"/>
-      <c r="B64" s="78"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="78"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="78"/>
-      <c r="G64" s="78"/>
-      <c r="H64" s="78"/>
-      <c r="I64" s="78"/>
-      <c r="J64" s="78"/>
-      <c r="K64" s="78"/>
-      <c r="L64" s="78"/>
-      <c r="M64" s="78"/>
-      <c r="N64" s="78"/>
-      <c r="O64" s="78"/>
-      <c r="P64" s="78"/>
-      <c r="Q64" s="78"/>
-      <c r="R64" s="78"/>
-      <c r="S64" s="78"/>
-      <c r="T64" s="78"/>
+      <c r="A64" s="89"/>
+      <c r="B64" s="89"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="89"/>
+      <c r="H64" s="89"/>
+      <c r="I64" s="89"/>
+      <c r="J64" s="89"/>
+      <c r="K64" s="89"/>
+      <c r="L64" s="89"/>
+      <c r="M64" s="89"/>
+      <c r="N64" s="89"/>
+      <c r="O64" s="89"/>
+      <c r="P64" s="89"/>
+      <c r="Q64" s="89"/>
+      <c r="R64" s="89"/>
+      <c r="S64" s="89"/>
+      <c r="T64" s="89"/>
     </row>
     <row r="65" s="44" customFormat="1" spans="1:20">
-      <c r="A65" s="78"/>
-      <c r="B65" s="78"/>
-      <c r="C65" s="78"/>
-      <c r="D65" s="78"/>
-      <c r="E65" s="78"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="78"/>
-      <c r="H65" s="78"/>
-      <c r="I65" s="78"/>
-      <c r="J65" s="78"/>
-      <c r="K65" s="78"/>
-      <c r="L65" s="78"/>
-      <c r="M65" s="78"/>
-      <c r="N65" s="78"/>
-      <c r="O65" s="78"/>
-      <c r="P65" s="78"/>
-      <c r="Q65" s="78"/>
-      <c r="R65" s="78"/>
-      <c r="S65" s="78"/>
-      <c r="T65" s="78"/>
+      <c r="A65" s="89"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="89"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="89"/>
+      <c r="H65" s="89"/>
+      <c r="I65" s="89"/>
+      <c r="J65" s="89"/>
+      <c r="K65" s="89"/>
+      <c r="L65" s="89"/>
+      <c r="M65" s="89"/>
+      <c r="N65" s="89"/>
+      <c r="O65" s="89"/>
+      <c r="P65" s="89"/>
+      <c r="Q65" s="89"/>
+      <c r="R65" s="89"/>
+      <c r="S65" s="89"/>
+      <c r="T65" s="89"/>
     </row>
     <row r="66" s="44" customFormat="1" spans="1:20">
-      <c r="A66" s="78"/>
-      <c r="B66" s="78"/>
-      <c r="C66" s="78"/>
-      <c r="D66" s="78"/>
-      <c r="E66" s="78"/>
-      <c r="F66" s="78"/>
-      <c r="G66" s="78"/>
-      <c r="H66" s="78"/>
-      <c r="I66" s="78"/>
-      <c r="J66" s="78"/>
-      <c r="K66" s="78"/>
-      <c r="L66" s="78"/>
-      <c r="M66" s="78"/>
-      <c r="N66" s="78"/>
-      <c r="O66" s="78"/>
-      <c r="P66" s="78"/>
-      <c r="Q66" s="78"/>
-      <c r="R66" s="78"/>
-      <c r="S66" s="78"/>
-      <c r="T66" s="78"/>
+      <c r="A66" s="89"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="89"/>
+      <c r="F66" s="89"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="89"/>
+      <c r="J66" s="89"/>
+      <c r="K66" s="89"/>
+      <c r="L66" s="89"/>
+      <c r="M66" s="89"/>
+      <c r="N66" s="89"/>
+      <c r="O66" s="89"/>
+      <c r="P66" s="89"/>
+      <c r="Q66" s="89"/>
+      <c r="R66" s="89"/>
+      <c r="S66" s="89"/>
+      <c r="T66" s="89"/>
     </row>
     <row r="67" s="44" customFormat="1" spans="1:20">
-      <c r="A67" s="78"/>
-      <c r="B67" s="78"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="78"/>
-      <c r="H67" s="78"/>
-      <c r="I67" s="78"/>
-      <c r="J67" s="78"/>
-      <c r="K67" s="78"/>
-      <c r="L67" s="78"/>
-      <c r="M67" s="78"/>
-      <c r="N67" s="78"/>
-      <c r="O67" s="78"/>
-      <c r="P67" s="78"/>
-      <c r="Q67" s="78"/>
-      <c r="R67" s="78"/>
-      <c r="S67" s="78"/>
-      <c r="T67" s="78"/>
-    </row>
-    <row r="68" s="44" customFormat="1" spans="1:20">
-      <c r="A68" s="78"/>
-      <c r="B68" s="78"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="78"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="78"/>
-      <c r="G68" s="78"/>
-      <c r="H68" s="78"/>
-      <c r="I68" s="78"/>
-      <c r="J68" s="78"/>
-      <c r="K68" s="78"/>
-      <c r="L68" s="78"/>
-      <c r="M68" s="78"/>
-      <c r="N68" s="78"/>
-      <c r="O68" s="78"/>
-      <c r="P68" s="78"/>
-      <c r="Q68" s="78"/>
-      <c r="R68" s="78"/>
-      <c r="S68" s="78"/>
-      <c r="T68" s="78"/>
-    </row>
-    <row r="69" s="44" customFormat="1" spans="1:20">
-      <c r="A69" s="78"/>
-      <c r="B69" s="78"/>
-      <c r="C69" s="78"/>
-      <c r="D69" s="78"/>
-      <c r="E69" s="78"/>
-      <c r="F69" s="78"/>
-      <c r="G69" s="78"/>
-      <c r="H69" s="78"/>
-      <c r="I69" s="78"/>
-      <c r="J69" s="78"/>
-      <c r="K69" s="78"/>
-      <c r="L69" s="78"/>
-      <c r="M69" s="78"/>
-      <c r="N69" s="78"/>
-      <c r="O69" s="78"/>
-      <c r="P69" s="78"/>
-      <c r="Q69" s="78"/>
-      <c r="R69" s="78"/>
-      <c r="S69" s="78"/>
-      <c r="T69" s="78"/>
-    </row>
-    <row r="70" s="44" customFormat="1" spans="1:20">
-      <c r="A70" s="78"/>
-      <c r="B70" s="78"/>
-      <c r="C70" s="78"/>
-      <c r="D70" s="78"/>
-      <c r="E70" s="78"/>
-      <c r="F70" s="78"/>
-      <c r="G70" s="78"/>
-      <c r="H70" s="78"/>
-      <c r="I70" s="78"/>
-      <c r="J70" s="78"/>
-      <c r="K70" s="78"/>
-      <c r="L70" s="78"/>
-      <c r="M70" s="78"/>
-      <c r="N70" s="78"/>
-      <c r="O70" s="78"/>
-      <c r="P70" s="78"/>
-      <c r="Q70" s="78"/>
-      <c r="R70" s="78"/>
-      <c r="S70" s="78"/>
-      <c r="T70" s="78"/>
-    </row>
-    <row r="71" s="44" customFormat="1" spans="1:20">
-      <c r="A71" s="78"/>
-      <c r="B71" s="78"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="78"/>
-      <c r="E71" s="78"/>
-      <c r="F71" s="78"/>
-      <c r="G71" s="78"/>
-      <c r="H71" s="78"/>
-      <c r="I71" s="78"/>
-      <c r="J71" s="78"/>
-      <c r="K71" s="78"/>
-      <c r="L71" s="78"/>
-      <c r="M71" s="78"/>
-      <c r="N71" s="78"/>
-      <c r="O71" s="78"/>
-      <c r="P71" s="78"/>
-      <c r="Q71" s="78"/>
-      <c r="R71" s="78"/>
-      <c r="S71" s="78"/>
-      <c r="T71" s="78"/>
-    </row>
-    <row r="72" s="46" customFormat="1" spans="1:20">
+      <c r="A67" s="89"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="89"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="89"/>
+      <c r="J67" s="89"/>
+      <c r="K67" s="89"/>
+      <c r="L67" s="89"/>
+      <c r="M67" s="89"/>
+      <c r="N67" s="89"/>
+      <c r="O67" s="89"/>
+      <c r="P67" s="89"/>
+      <c r="Q67" s="89"/>
+      <c r="R67" s="89"/>
+      <c r="S67" s="89"/>
+      <c r="T67" s="89"/>
+    </row>
+    <row r="68" s="46" customFormat="1" spans="1:20">
+      <c r="A68" s="47"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="44"/>
+      <c r="P68" s="44"/>
+      <c r="Q68" s="44"/>
+      <c r="R68" s="44"/>
+      <c r="S68" s="44"/>
+      <c r="T68" s="44"/>
+    </row>
+    <row r="69" s="46" customFormat="1" spans="1:20">
+      <c r="A69" s="47"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="44"/>
+      <c r="O69" s="44"/>
+      <c r="P69" s="44"/>
+      <c r="Q69" s="44"/>
+      <c r="R69" s="44"/>
+      <c r="S69" s="44"/>
+      <c r="T69" s="44"/>
+    </row>
+    <row r="70" s="46" customFormat="1" spans="1:20">
+      <c r="A70" s="47"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="44"/>
+      <c r="P70" s="44"/>
+      <c r="Q70" s="44"/>
+      <c r="R70" s="44"/>
+      <c r="S70" s="44"/>
+      <c r="T70" s="44"/>
+    </row>
+    <row r="71" s="46" customFormat="1" spans="1:20">
+      <c r="A71" s="47"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="44"/>
+      <c r="P71" s="44"/>
+      <c r="Q71" s="44"/>
+      <c r="R71" s="44"/>
+      <c r="S71" s="44"/>
+      <c r="T71" s="44"/>
+    </row>
+    <row r="72" s="46" customFormat="1" spans="1:4">
       <c r="A72" s="47"/>
       <c r="B72" s="47"/>
       <c r="C72" s="47"/>
       <c r="D72" s="44"/>
-      <c r="E72" s="44"/>
-      <c r="F72" s="44"/>
-      <c r="G72" s="44"/>
-      <c r="H72" s="44"/>
-      <c r="I72" s="44"/>
-      <c r="J72" s="44"/>
-      <c r="K72" s="44"/>
-      <c r="L72" s="44"/>
-      <c r="M72" s="44"/>
-      <c r="N72" s="44"/>
-      <c r="O72" s="44"/>
-      <c r="P72" s="44"/>
-      <c r="Q72" s="44"/>
-      <c r="R72" s="44"/>
-      <c r="S72" s="44"/>
-      <c r="T72" s="44"/>
-    </row>
-    <row r="73" s="46" customFormat="1" spans="1:20">
+    </row>
+    <row r="73" s="46" customFormat="1" spans="1:4">
       <c r="A73" s="47"/>
       <c r="B73" s="47"/>
       <c r="C73" s="47"/>
       <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="44"/>
-      <c r="H73" s="44"/>
-      <c r="I73" s="44"/>
-      <c r="J73" s="44"/>
-      <c r="K73" s="44"/>
-      <c r="L73" s="44"/>
-      <c r="M73" s="44"/>
-      <c r="N73" s="44"/>
-      <c r="O73" s="44"/>
-      <c r="P73" s="44"/>
-      <c r="Q73" s="44"/>
-      <c r="R73" s="44"/>
-      <c r="S73" s="44"/>
-      <c r="T73" s="44"/>
-    </row>
-    <row r="74" s="46" customFormat="1" spans="1:20">
+    </row>
+    <row r="74" s="46" customFormat="1" spans="1:4">
       <c r="A74" s="47"/>
       <c r="B74" s="47"/>
       <c r="C74" s="47"/>
       <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="44"/>
-      <c r="J74" s="44"/>
-      <c r="K74" s="44"/>
-      <c r="L74" s="44"/>
-      <c r="M74" s="44"/>
-      <c r="N74" s="44"/>
-      <c r="O74" s="44"/>
-      <c r="P74" s="44"/>
-      <c r="Q74" s="44"/>
-      <c r="R74" s="44"/>
-      <c r="S74" s="44"/>
-      <c r="T74" s="44"/>
-    </row>
-    <row r="75" s="46" customFormat="1" spans="1:20">
+    </row>
+    <row r="75" s="46" customFormat="1" spans="1:4">
       <c r="A75" s="47"/>
       <c r="B75" s="47"/>
       <c r="C75" s="47"/>
       <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="44"/>
-      <c r="I75" s="44"/>
-      <c r="J75" s="44"/>
-      <c r="K75" s="44"/>
-      <c r="L75" s="44"/>
-      <c r="M75" s="44"/>
-      <c r="N75" s="44"/>
-      <c r="O75" s="44"/>
-      <c r="P75" s="44"/>
-      <c r="Q75" s="44"/>
-      <c r="R75" s="44"/>
-      <c r="S75" s="44"/>
-      <c r="T75" s="44"/>
-    </row>
-    <row r="76" s="46" customFormat="1" spans="1:20">
+    </row>
+    <row r="76" s="46" customFormat="1" spans="1:4">
       <c r="A76" s="47"/>
       <c r="B76" s="47"/>
       <c r="C76" s="47"/>
       <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="44"/>
-      <c r="I76" s="44"/>
-      <c r="J76" s="44"/>
-      <c r="K76" s="44"/>
-      <c r="L76" s="44"/>
-      <c r="M76" s="44"/>
-      <c r="N76" s="44"/>
-      <c r="O76" s="44"/>
-      <c r="P76" s="44"/>
-      <c r="Q76" s="44"/>
-      <c r="R76" s="44"/>
-      <c r="S76" s="44"/>
-      <c r="T76" s="44"/>
-    </row>
-    <row r="77" s="46" customFormat="1" spans="1:20">
+    </row>
+    <row r="77" s="46" customFormat="1" spans="1:4">
       <c r="A77" s="47"/>
       <c r="B77" s="47"/>
       <c r="C77" s="47"/>
       <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="44"/>
-      <c r="I77" s="44"/>
-      <c r="J77" s="44"/>
-      <c r="K77" s="44"/>
-      <c r="L77" s="44"/>
-      <c r="M77" s="44"/>
-      <c r="N77" s="44"/>
-      <c r="O77" s="44"/>
-      <c r="P77" s="44"/>
-      <c r="Q77" s="44"/>
-      <c r="R77" s="44"/>
-      <c r="S77" s="44"/>
-      <c r="T77" s="44"/>
-    </row>
-    <row r="78" s="46" customFormat="1" spans="1:20">
+    </row>
+    <row r="78" s="46" customFormat="1" spans="1:4">
       <c r="A78" s="47"/>
       <c r="B78" s="47"/>
       <c r="C78" s="47"/>
       <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="44"/>
-      <c r="J78" s="44"/>
-      <c r="K78" s="44"/>
-      <c r="L78" s="44"/>
-      <c r="M78" s="44"/>
-      <c r="N78" s="44"/>
-      <c r="O78" s="44"/>
-      <c r="P78" s="44"/>
-      <c r="Q78" s="44"/>
-      <c r="R78" s="44"/>
-      <c r="S78" s="44"/>
-      <c r="T78" s="44"/>
-    </row>
-    <row r="79" s="46" customFormat="1" spans="1:20">
+    </row>
+    <row r="79" s="46" customFormat="1" spans="1:4">
       <c r="A79" s="47"/>
       <c r="B79" s="47"/>
       <c r="C79" s="47"/>
       <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="44"/>
-      <c r="I79" s="44"/>
-      <c r="J79" s="44"/>
-      <c r="K79" s="44"/>
-      <c r="L79" s="44"/>
-      <c r="M79" s="44"/>
-      <c r="N79" s="44"/>
-      <c r="O79" s="44"/>
-      <c r="P79" s="44"/>
-      <c r="Q79" s="44"/>
-      <c r="R79" s="44"/>
-      <c r="S79" s="44"/>
-      <c r="T79" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="27">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A38:O38"/>
-    <mergeCell ref="A39:O39"/>
-    <mergeCell ref="A57:R57"/>
-    <mergeCell ref="A60:M60"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C23:C24"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A39" r:id="rId1" display="东风财富  https://data.eastmoney.com/rzrq/total.html"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3322,7 +3287,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:22">
       <c r="A1" s="40" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -3348,7 +3313,7 @@
     </row>
     <row r="2" ht="113" customHeight="1" spans="1:22">
       <c r="A2" s="42" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -3374,7 +3339,7 @@
     </row>
     <row r="3" ht="159" customHeight="1" spans="1:22">
       <c r="A3" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3701,7 +3666,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:20">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3725,7 +3690,7 @@
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:20">
       <c r="A2" s="31" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -3749,7 +3714,7 @@
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:9">
       <c r="A3" s="32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -3762,7 +3727,7 @@
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:9">
       <c r="A4" s="33" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -3775,7 +3740,7 @@
     </row>
     <row r="5" ht="34" customHeight="1" spans="1:9">
       <c r="A5" s="34" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -3788,7 +3753,7 @@
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:9">
       <c r="A6" s="35" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -3801,7 +3766,7 @@
     </row>
     <row r="7" ht="36" customHeight="1" spans="1:9">
       <c r="A7" s="36" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -3814,7 +3779,7 @@
     </row>
     <row r="8" ht="36" customHeight="1" spans="1:9">
       <c r="A8" s="37" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -3827,7 +3792,7 @@
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:9">
       <c r="A9" s="38" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
@@ -3840,7 +3805,7 @@
     </row>
     <row r="10" ht="39" customHeight="1" spans="1:9">
       <c r="A10" s="39" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -3885,7 +3850,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:20">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3909,18 +3874,18 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:1">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="25" customHeight="1"/>
     <row r="5" customFormat="1" ht="16" customHeight="1" spans="1:13">
       <c r="A5" s="30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -3937,12 +3902,12 @@
     </row>
     <row r="6" customFormat="1" ht="25" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="25" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="25" customHeight="1"/>
@@ -3950,7 +3915,7 @@
     <row r="10" customFormat="1" ht="25" customHeight="1"/>
     <row r="11" customFormat="1" ht="16" customHeight="1" spans="1:13">
       <c r="A11" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -3967,7 +3932,7 @@
     </row>
     <row r="12" customFormat="1" ht="25" customHeight="1" spans="1:1">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="25" customHeight="1"/>
@@ -4017,7 +3982,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:20">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4041,7 +4006,7 @@
     </row>
     <row r="2" ht="18.75" spans="1:20">
       <c r="A2" s="19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4065,7 +4030,7 @@
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:13">
       <c r="A3" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -4082,19 +4047,19 @@
     </row>
     <row r="4" customFormat="1" ht="25" customHeight="1" spans="1:5">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="25" customHeight="1"/>
@@ -4102,7 +4067,7 @@
     <row r="7" customFormat="1" ht="25" customHeight="1"/>
     <row r="8" ht="27" customHeight="1" spans="1:13">
       <c r="A8" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -4119,40 +4084,40 @@
     </row>
     <row r="9" customFormat="1" ht="25" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="25" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="25" customHeight="1" spans="1:2">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="25" customHeight="1" spans="1:2">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="25" customHeight="1"/>
     <row r="14" ht="31" customHeight="1" spans="1:12">
       <c r="A14" s="20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -4168,7 +4133,7 @@
     </row>
     <row r="15" ht="229" customHeight="1" spans="1:12">
       <c r="A15" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -4184,7 +4149,7 @@
     </row>
     <row r="16" customFormat="1" ht="48" customHeight="1" spans="1:5">
       <c r="A16" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -4194,12 +4159,12 @@
     <row r="17" customFormat="1" ht="29" customHeight="1" spans="1:12">
       <c r="A17" s="6"/>
       <c r="B17" s="23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -4211,46 +4176,46 @@
     </row>
     <row r="18" customFormat="1" ht="25" customHeight="1" spans="2:5">
       <c r="B18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="25" customHeight="1" spans="1:1">
       <c r="A19" s="25" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="25" customHeight="1"/>
     <row r="21" customFormat="1" ht="25" customHeight="1" spans="1:1">
       <c r="A21" s="26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="25" customHeight="1"/>
     <row r="23" customFormat="1" ht="25" customHeight="1" spans="1:1">
       <c r="A23" s="27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="25" customHeight="1"/>
     <row r="25" customFormat="1" ht="25" customHeight="1" spans="1:1">
       <c r="A25" s="28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="25" customHeight="1"/>
     <row r="27" customFormat="1" ht="25" customHeight="1"/>
     <row r="28" customFormat="1" ht="25" customHeight="1" spans="1:5">
       <c r="A28" s="29" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -4259,16 +4224,16 @@
     </row>
     <row r="29" customFormat="1" ht="25" customHeight="1" spans="2:5">
       <c r="B29" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="134" customHeight="1"/>
@@ -4296,7 +4261,7 @@
   <sheetPr/>
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -4310,7 +4275,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:19">
       <c r="A1" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="6"/>
@@ -4333,7 +4298,7 @@
     </row>
     <row r="2" ht="67" customHeight="1" spans="1:19">
       <c r="A2" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="6"/>
@@ -4356,16 +4321,16 @@
     </row>
     <row r="3" ht="18.75" spans="1:19">
       <c r="A3" s="12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -4385,16 +4350,16 @@
     </row>
     <row r="4" ht="121" customHeight="1" spans="1:19">
       <c r="A4" s="16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
@@ -4414,16 +4379,16 @@
     </row>
     <row r="5" ht="101" customHeight="1" spans="1:19">
       <c r="A5" s="16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
@@ -4443,13 +4408,13 @@
     </row>
     <row r="6" ht="84" customHeight="1" spans="1:19">
       <c r="A6" s="16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
@@ -4469,16 +4434,16 @@
     </row>
     <row r="7" ht="140" customHeight="1" spans="1:19">
       <c r="A7" s="16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
@@ -4498,16 +4463,16 @@
     </row>
     <row r="8" ht="126" customHeight="1" spans="1:19">
       <c r="A8" s="16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -4527,14 +4492,14 @@
     </row>
     <row r="9" ht="106" customHeight="1" spans="1:19">
       <c r="A9" s="16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -4554,16 +4519,16 @@
     </row>
     <row r="10" ht="54" spans="1:19">
       <c r="A10" s="16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
@@ -4583,14 +4548,14 @@
     </row>
     <row r="11" ht="35" customHeight="1" spans="1:19">
       <c r="A11" s="16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -4610,14 +4575,14 @@
     </row>
     <row r="12" ht="82" customHeight="1" spans="1:19">
       <c r="A12" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
@@ -4637,14 +4602,14 @@
     </row>
     <row r="13" ht="99" customHeight="1" spans="1:19">
       <c r="A13" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="17" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -4664,11 +4629,11 @@
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:19">
       <c r="A14" s="16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
@@ -4688,11 +4653,11 @@
     </row>
     <row r="15" ht="34" customHeight="1" spans="1:19">
       <c r="A15" s="16" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -4712,18 +4677,18 @@
     </row>
     <row r="16" ht="22" customHeight="1" spans="1:3">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4750,7 +4715,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:20">
       <c r="A1" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4774,7 +4739,7 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:17">
       <c r="A2" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -4795,7 +4760,7 @@
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:17">
       <c r="A3" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4816,7 +4781,7 @@
     </row>
     <row r="4" ht="29" customHeight="1" spans="1:17">
       <c r="A4" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -4837,7 +4802,7 @@
     </row>
     <row r="5" ht="63" customHeight="1" spans="1:17">
       <c r="A5" s="9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -4858,7 +4823,7 @@
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:17">
       <c r="A6" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -4879,7 +4844,7 @@
     </row>
     <row r="7" ht="56" customHeight="1" spans="1:17">
       <c r="A7" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4900,7 +4865,7 @@
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:17">
       <c r="A8" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -4921,7 +4886,7 @@
     </row>
     <row r="9" ht="82" customHeight="1" spans="1:17">
       <c r="A9" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
